--- a/data/trans_camb/P57GLOBAL_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.092082599324986</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-25.52617503657238</v>
+        <v>-25.52617503657235</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-4.999887142951631</v>
@@ -655,7 +655,7 @@
         <v>-5.202161733955768</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-30.06444641023638</v>
+        <v>-30.06444641023637</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-3.541357745026807</v>
@@ -664,7 +664,7 @@
         <v>-0.9594370398845364</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-27.70863065505712</v>
+        <v>-27.70863065505711</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.000184910605055</v>
+        <v>-9.365632465865113</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.579432175905635</v>
+        <v>-2.706241837157626</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-33.46454212267508</v>
+        <v>-33.56380005048402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.36417252160416</v>
+        <v>-10.45131194827548</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-11.23832058777271</v>
+        <v>-10.23524358171364</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-35.83386761494056</v>
+        <v>-35.96769334996407</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.876527896260827</v>
+        <v>-8.056469542180086</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.186076418505224</v>
+        <v>-5.281997119038611</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-32.10094700043937</v>
+        <v>-32.23722972423047</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.452388939834522</v>
+        <v>4.476365880940723</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.813747511952977</v>
+        <v>9.363687540766939</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-18.37888421923625</v>
+        <v>-18.57781496231125</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.154162939969785</v>
+        <v>0.5224301542248282</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.171710915447294</v>
+        <v>0.4353194921845335</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-23.83430049344067</v>
+        <v>-23.89287696520608</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.930702310077785</v>
+        <v>0.602921923684954</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.216624939003798</v>
+        <v>3.037201750461067</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-23.17244865716754</v>
+        <v>-22.89851227257366</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.03788173089875238</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3127263462563969</v>
+        <v>-0.3127263462563967</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.0549254362017877</v>
@@ -760,7 +760,7 @@
         <v>-0.05714749038537107</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3302680212643108</v>
+        <v>-0.3302680212643107</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.04106991736654794</v>
@@ -769,7 +769,7 @@
         <v>-0.01112680581389977</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3213431833995011</v>
+        <v>-0.321343183399501</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.108808711567712</v>
+        <v>-0.10784786660367</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04168202095035769</v>
+        <v>-0.03214427931015123</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4018278500233126</v>
+        <v>-0.3971583787592732</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1117969419133994</v>
+        <v>-0.1145410921458942</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1210158564382521</v>
+        <v>-0.110974443900552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3883849347800377</v>
+        <v>-0.38904432847381</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08983356632686541</v>
+        <v>-0.09156683637999094</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05920246125496462</v>
+        <v>-0.05975779466612822</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3665085264373354</v>
+        <v>-0.368171923374788</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.0565419173402603</v>
+        <v>0.05697628372532529</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1228805644489787</v>
+        <v>0.1196711574456705</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2323738775338674</v>
+        <v>-0.2311429913010927</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.01290927741304562</v>
+        <v>0.004333291567224815</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.002211550260082819</v>
+        <v>0.004217037862681723</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2706116736509339</v>
+        <v>-0.2726117776944815</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01092142070239399</v>
+        <v>0.007085233677058549</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.03803066373835755</v>
+        <v>0.03606470326607031</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2757101171127788</v>
+        <v>-0.2723512699141001</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>20.59028619579663</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8725652925094418</v>
+        <v>0.8725652925094196</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-10.96279413816615</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.71382769746764</v>
+        <v>-12.54762912068628</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>14.86161068873434</v>
+        <v>14.65919714604654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.656529581001718</v>
+        <v>-6.545649858667993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-16.83342707376863</v>
+        <v>-17.13005714473269</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>8.309353636060763</v>
+        <v>7.778664933861597</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-16.79404156359453</v>
+        <v>-16.87170601596159</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-13.61071550978384</v>
+        <v>-13.11166669301571</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>13.02603741783728</v>
+        <v>13.03245633884049</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-10.09117741420055</v>
+        <v>-9.822255654699866</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0592092847629726</v>
+        <v>-0.140254916794584</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>26.1308209536642</v>
+        <v>25.53222481126071</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.070415629487108</v>
+        <v>7.484519941275519</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-4.21098350865478</v>
+        <v>-4.662339046878254</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.66638343562735</v>
+        <v>18.5736610022781</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-5.666737794457123</v>
+        <v>-5.577367580708694</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-4.364986670905516</v>
+        <v>-4.281593262558136</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>20.89794659066807</v>
+        <v>20.67275238833604</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.152533006320194</v>
+        <v>-1.226465828036387</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.32790070945409</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.01389561930990886</v>
+        <v>0.01389561930990851</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1577791491635193</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1913387280362401</v>
+        <v>-0.1917842925339573</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2284058909380392</v>
+        <v>0.2205731162066191</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08516882796900899</v>
+        <v>-0.09970615657632963</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2340231641219539</v>
+        <v>-0.2388500378532016</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1150207922188217</v>
+        <v>0.1092432024195499</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2323382792611505</v>
+        <v>-0.2332127790032635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1989201797267089</v>
+        <v>-0.1935368151676383</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1889681411767266</v>
+        <v>0.1902061357829879</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1476931968990459</v>
+        <v>-0.1431765053260186</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.0002535102156345919</v>
+        <v>-0.00247189233598281</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4473387531109455</v>
+        <v>0.4292896002183288</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1342935376647031</v>
+        <v>0.1262848639654405</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.06369967020051828</v>
+        <v>-0.06861233483425021</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2809905764258869</v>
+        <v>0.282056947296443</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.08496745458095303</v>
+        <v>-0.08603315142095831</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.06775495560850653</v>
+        <v>-0.06618232045633801</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3264252550038995</v>
+        <v>0.3243505310585432</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.01794927625156614</v>
+        <v>-0.02057770804730577</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>14.37316881782447</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-15.09161738369602</v>
+        <v>-15.09161738369603</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>18.04315932304878</v>
@@ -1092,7 +1092,7 @@
         <v>19.58475851372793</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-8.509975964802463</v>
+        <v>-8.509975964802452</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.4998444417128</v>
+        <v>-6.06219132139146</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.877548754267593</v>
+        <v>7.239773441589493</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-22.29975982333422</v>
+        <v>-22.42470184329273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.872584206011407</v>
+        <v>11.07671247968656</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17.90974815807436</v>
+        <v>17.98534597674767</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.686917292548291</v>
+        <v>-9.169537228383691</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.713833146920258</v>
+        <v>5.776599286438498</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>14.64606557017516</v>
+        <v>14.90129171681439</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-13.87508172435843</v>
+        <v>-13.78297150230469</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.971600856988488</v>
+        <v>9.824551252258829</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.99681549516376</v>
+        <v>21.11631424924434</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.630911390139854</v>
+        <v>-6.62781946434941</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24.36355024631834</v>
+        <v>25.07044408332109</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>31.66587687083166</v>
+        <v>31.37639273313548</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.045115420543051</v>
+        <v>4.93459305084725</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.84778243335239</v>
+        <v>15.31252086761529</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>24.5753174875491</v>
+        <v>24.39370065405882</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-3.292738292856159</v>
+        <v>-3.128307304933067</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2238371893887889</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2350257804186016</v>
+        <v>-0.2350257804186017</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3090839066656441</v>
@@ -1197,7 +1197,7 @@
         <v>0.3199050407632697</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1390052476780004</v>
+        <v>-0.1390052476780002</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08258361589072594</v>
+        <v>-0.08779066567647989</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1170112364577668</v>
+        <v>0.1049374506148665</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3337193875725973</v>
+        <v>-0.333190863087604</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1612787899849047</v>
+        <v>0.1788525184729373</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2848004093320629</v>
+        <v>0.2909775357982845</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1542840631836614</v>
+        <v>-0.1483420866952578</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07470133358141874</v>
+        <v>0.09094176436663202</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2306145111579907</v>
+        <v>0.2317579334928791</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.218158444205246</v>
+        <v>-0.2151723959080334</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1698041873473798</v>
+        <v>0.1623803080301584</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3773537337419149</v>
+        <v>0.3571938316506121</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1108002608405567</v>
+        <v>-0.1076382692053821</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4594822733574735</v>
+        <v>0.4658281559261048</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5927021064559036</v>
+        <v>0.5911093520095883</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0965295786118484</v>
+        <v>0.09113391125994781</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2723983894584781</v>
+        <v>0.2648803609863963</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.425770635511348</v>
+        <v>0.4250856186185906</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.05738868460641403</v>
+        <v>-0.05353401173844248</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-24.88289425199923</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-37.92191385146494</v>
+        <v>-37.92191385146495</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-7.824096194165508</v>
@@ -1297,7 +1297,7 @@
         <v>-12.92674317520428</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-33.71697555269967</v>
+        <v>-33.71697555269968</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-13.03665194546091</v>
@@ -1306,7 +1306,7 @@
         <v>-18.77744129476431</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-35.72700661518652</v>
+        <v>-35.72700661518653</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-24.56939625754639</v>
+        <v>-24.73581206291873</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-32.00195679681583</v>
+        <v>-31.7799984553902</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-45.31067205699527</v>
+        <v>-45.25738399604492</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-14.91095960531726</v>
+        <v>-14.12746245605479</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-19.89668246959502</v>
+        <v>-19.568089094638</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-40.14146143250398</v>
+        <v>-39.79675053226976</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-17.97277330550351</v>
+        <v>-17.66490457292818</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-23.87930982240659</v>
+        <v>-23.96087076937</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-41.10942712131367</v>
+        <v>-40.62601107044359</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-9.870357185377134</v>
+        <v>-10.7318954547521</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-17.79513514057368</v>
+        <v>-17.47461809695947</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-30.10776191595881</v>
+        <v>-29.39981552248655</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.493909168004507</v>
+        <v>-1.589222587680998</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-6.640153048025171</v>
+        <v>-5.966442642425207</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-27.28737650298078</v>
+        <v>-27.27130182077583</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-8.374679248718035</v>
+        <v>-7.801939967699843</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-13.84888067236954</v>
+        <v>-13.62639828579032</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-31.01946345281686</v>
+        <v>-30.6910394371536</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.3432891132208876</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.5231778926465654</v>
+        <v>-0.5231778926465656</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1098187046977459</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1814392558874681</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4732501351765353</v>
+        <v>-0.4732501351765354</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1814329279430283</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2613283048162998</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4972178013151718</v>
+        <v>-0.4972178013151719</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3328609934838301</v>
+        <v>-0.3288428756921338</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4226933746354743</v>
+        <v>-0.4280229392407</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6098409896911049</v>
+        <v>-0.6118808430523777</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1988790639239374</v>
+        <v>-0.193017840155967</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2680017926383833</v>
+        <v>-0.2642982382250551</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5439191305702662</v>
+        <v>-0.540298988169584</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2430488651186869</v>
+        <v>-0.2428165378844425</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.325153117280831</v>
+        <v>-0.3245124773119864</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5568850940969973</v>
+        <v>-0.5528010442175169</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1511779963644574</v>
+        <v>-0.1506299324411106</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2591079125266662</v>
+        <v>-0.2521258423542906</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.4331947811462382</v>
+        <v>-0.4156872681940266</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.02062046652122109</v>
+        <v>-0.02346014741214335</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.09463922515815296</v>
+        <v>-0.08794079312036518</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3937575306928173</v>
+        <v>-0.398609865006766</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1193770958339001</v>
+        <v>-0.112129833743356</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1970536052961302</v>
+        <v>-0.1951067438838726</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4413970790093708</v>
+        <v>-0.439483011165193</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>5.109485307508955</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.246089919623166</v>
+        <v>6.246089919623154</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-17.64238938009084</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-32.59672458604775</v>
+        <v>-32.19520099959428</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.352312019720544</v>
+        <v>3.283584052822372</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.417630640346091</v>
+        <v>4.373151123011255</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-19.75543908764082</v>
+        <v>-19.70867840484311</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.4637840984802328</v>
+        <v>-0.8157728345632593</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.160635338092365</v>
+        <v>0.8901330311945668</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-23.67320565833545</v>
+        <v>-23.09965850303293</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.849661231052511</v>
+        <v>3.119566331458742</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.685381574454495</v>
+        <v>4.056644907090058</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-14.46626362576637</v>
+        <v>-14.15439192281343</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.45100165769249</v>
+        <v>16.93885523560889</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18.15830786140341</v>
+        <v>17.88643813892808</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-4.601954780522681</v>
+        <v>-4.559758726116785</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.30427468682883</v>
+        <v>11.39874164486527</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.60403530692546</v>
+        <v>11.48085902718573</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-11.76006476936224</v>
+        <v>-11.42979320019892</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.81536334097484</v>
+        <v>12.12757213962149</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>13.3092952107533</v>
+        <v>13.18795527896414</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.05903109849416905</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07216256179596919</v>
+        <v>0.07216256179596905</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2104134069197536</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3905357131249294</v>
+        <v>-0.3796048044745371</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.03948005786728458</v>
+        <v>0.03882250448682226</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.05229828586888115</v>
+        <v>0.05188663230629101</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2203862653152475</v>
+        <v>-0.2227287099002466</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.005118927579699367</v>
+        <v>-0.008778485366500359</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01259337923534638</v>
+        <v>0.009613776710698329</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2762240693946482</v>
+        <v>-0.2707610833824695</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.03326676963687738</v>
+        <v>0.03626809088090219</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.05394085726973249</v>
+        <v>0.04770782874616643</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1893442520486172</v>
+        <v>-0.1829007564752747</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2331898802349273</v>
+        <v>0.2243664229686797</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2378353938911035</v>
+        <v>0.2355791792949393</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.0562004652492443</v>
+        <v>-0.0538251839535681</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1374594743291082</v>
+        <v>0.1379845960592095</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1407971179948556</v>
+        <v>0.1414640190171266</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1438459584518796</v>
+        <v>-0.1418972525606243</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1466420922082032</v>
+        <v>0.1503162567921765</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1660444332214106</v>
+        <v>0.1649210662288231</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>7.93342039393643</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-31.42300933301116</v>
+        <v>-31.42300933301117</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.8266891411672583</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-13.82621035748583</v>
+        <v>-14.52716240395634</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.5377669052274567</v>
+        <v>0.7581231988745821</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-36.23273139587839</v>
+        <v>-36.42842237162968</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.690367417986994</v>
+        <v>-2.79090428242971</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.7768874905799407</v>
+        <v>0.9505740140839303</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-37.53176312177335</v>
+        <v>-38.21756151607225</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-6.209941296046372</v>
+        <v>-5.954149444780668</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>2.777012438192359</v>
+        <v>2.729545024614004</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-35.32548962989991</v>
+        <v>-35.14952533666064</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.645321892456884</v>
+        <v>1.706872049967319</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>14.98509118019382</v>
+        <v>15.2927194739879</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-20.57003092755645</v>
+        <v>-20.75274509614616</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.82003288518212</v>
+        <v>12.07550663677443</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>14.76595600215648</v>
+        <v>15.49841493784519</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-24.09163321750665</v>
+        <v>-24.29691216576673</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.536880985922999</v>
+        <v>4.685632156378905</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>13.00424748197002</v>
+        <v>13.15353617443093</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-24.30240688262268</v>
+        <v>-24.47184720506676</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1077797299742622</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.4268982724625548</v>
+        <v>-0.4268982724625549</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.01138554602098209</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1857197369661924</v>
+        <v>-0.1945761117232589</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.00734202915985799</v>
+        <v>0.00876538900441423</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4843001670973178</v>
+        <v>-0.4885461951815129</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.03482594034769482</v>
+        <v>-0.03328003093067543</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01076612904298614</v>
+        <v>0.009425939621577799</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4866222241505831</v>
+        <v>-0.4964505658949509</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.08220068447841414</v>
+        <v>-0.07910221586745575</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.0379324793606941</v>
+        <v>0.03590312780706727</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4722954926326803</v>
+        <v>-0.4696919389407596</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.02443541746104999</v>
+        <v>0.02528887992224883</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2254927375460731</v>
+        <v>0.2259328373858049</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.3017375348887613</v>
+        <v>-0.3101967605835654</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1705930615308402</v>
+        <v>0.177808491096632</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2133226414703478</v>
+        <v>0.2210412608779358</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.3464739867823297</v>
+        <v>-0.3466675289789776</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.06430550663657847</v>
+        <v>0.06771961204830705</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1866850138734224</v>
+        <v>0.1890309931130292</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.35176715967801</v>
+        <v>-0.3530440683941695</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>31.11162544237822</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>12.42544650696726</v>
+        <v>12.42544650696729</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>21.62832840412647</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.874746857013191</v>
+        <v>1.976969908301569</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>25.65051608569967</v>
+        <v>25.77824972484783</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.509967307490906</v>
+        <v>6.889570286717841</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>16.18905160241583</v>
+        <v>15.6159781024775</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>34.02991819853627</v>
+        <v>33.85669550225715</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>11.24497184781973</v>
+        <v>10.63323709399452</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>10.89611560176158</v>
+        <v>10.84054971197146</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>31.36075982683862</v>
+        <v>31.36019802034207</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>10.64165621274088</v>
+        <v>10.32390360379634</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>13.51184974361412</v>
+        <v>13.0461420002166</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>36.19705828058662</v>
+        <v>36.07121915998189</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>18.30094443561866</v>
+        <v>18.73226080515384</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>27.07324776112807</v>
+        <v>26.86700179883987</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>43.43434280602132</v>
+        <v>43.38813107482022</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>21.71310627854149</v>
+        <v>20.7505458625287</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>18.47379699227826</v>
+        <v>18.76963406114472</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>38.36509293160047</v>
+        <v>38.22668318776392</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>18.18033841075805</v>
+        <v>17.81246064964673</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.5760128813112682</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2300496082184171</v>
+        <v>0.2300496082184175</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.4333853120074317</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.03270801354316229</v>
+        <v>0.03544766844761942</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4471605201073838</v>
+        <v>0.4514185989758599</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1149080415575842</v>
+        <v>0.1207959562652293</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.3044590644844583</v>
+        <v>0.2940075544656402</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.6445152671735288</v>
+        <v>0.6307429448742499</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2100955982065591</v>
+        <v>0.202573143478493</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2012515941433926</v>
+        <v>0.2019735463575345</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.5752313525661332</v>
+        <v>0.5791687732138628</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1980447145934198</v>
+        <v>0.1884922449521898</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2646638865689031</v>
+        <v>0.2563423604408283</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7252037049632017</v>
+        <v>0.715960613673971</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3618831641017845</v>
+        <v>0.3638021193133568</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5893003055010445</v>
+        <v>0.5745606025528758</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.9476514780564728</v>
+        <v>0.9376595224495818</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4633068901344051</v>
+        <v>0.4421907902222387</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.36847895162736</v>
+        <v>0.3796931050768168</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7744366594799469</v>
+        <v>0.7782166880224395</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3638966306918832</v>
+        <v>0.3601828935526089</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>4.261323481473962</v>
+        <v>4.332163695267767</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>6.47945295338679</v>
+        <v>6.490424629676833</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.523933387819756</v>
+        <v>-1.672847439700376</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.733053555816525</v>
+        <v>-1.505120987174718</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>4.065648496372268</v>
+        <v>3.692967405648896</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.318147316357235</v>
+        <v>-3.24771809055077</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.687123292463606</v>
+        <v>2.377982410079125</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>6.135482480673709</v>
+        <v>6.245429598852867</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.433177013175409</v>
+        <v>-1.444984980453181</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>11.15556793719347</v>
+        <v>11.26817448635967</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>13.10671675583267</v>
+        <v>13.0372304260502</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.445482238563478</v>
+        <v>6.345882386220766</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.6287643586872</v>
+        <v>4.604028659133449</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>9.675455715933881</v>
+        <v>9.195715840306221</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.770945409468483</v>
+        <v>3.039347052524119</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>7.076593799258951</v>
+        <v>7.131969518408268</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>10.35746015742372</v>
+        <v>10.60454728677636</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.690037267291837</v>
+        <v>3.554604760972351</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.05041929406265505</v>
+        <v>0.05120438286422456</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.07543670432582633</v>
+        <v>0.07640903839573239</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.01740555435093466</v>
+        <v>-0.01972931965083354</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.01884380323173997</v>
+        <v>-0.01686001302378485</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.04452857855179567</v>
+        <v>0.04119192168910343</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.03703464046290967</v>
+        <v>-0.0360232074296439</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03112840565567555</v>
+        <v>0.02722418659439575</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.0704126192163694</v>
+        <v>0.07153256922125791</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.01639422332835448</v>
+        <v>-0.0165490990282297</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.137703238283736</v>
+        <v>0.1391785033729233</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1614396279558198</v>
+        <v>0.1609228456411171</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.07986302192555172</v>
+        <v>0.07745896104715716</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.05346626876325105</v>
+        <v>0.05324910134339802</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1117622907954307</v>
+        <v>0.1069013400443902</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.03170594834472641</v>
+        <v>0.0353131984787696</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.0836002533895044</v>
+        <v>0.08420515802205938</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1230384296365431</v>
+        <v>0.1261674139508592</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.04364718642508702</v>
+        <v>0.04200007495866023</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>12.49459332316891</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-6.975355720159781</v>
+        <v>-6.975355720159793</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.7668008748590416</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-3.75691113860666</v>
+        <v>-3.686783246798833</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>9.501985235008503</v>
+        <v>9.430099428360753</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-8.491426100039146</v>
+        <v>-8.637419662556491</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.9373820883117328</v>
+        <v>1.037559112168772</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>10.45461885767644</v>
+        <v>10.67317062784197</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-9.305412852294786</v>
+        <v>-9.086664719447986</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.8803872800834392</v>
+        <v>-0.8589762894703501</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>10.70716664797944</v>
+        <v>10.53228219844673</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-8.186641092292952</v>
+        <v>-8.129159037475592</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.7618063400125151</v>
+        <v>0.7895865630787868</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>13.41159355576635</v>
+        <v>13.4546578742998</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-3.694065907798929</v>
+        <v>-3.715051934845825</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.089172470893672</v>
+        <v>5.300953906172599</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>14.36330719600461</v>
+        <v>14.50324489308224</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-4.830351732489359</v>
+        <v>-4.611394065044027</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.43508639173193</v>
+        <v>2.369330962892373</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>13.64822641599323</v>
+        <v>13.42860977627928</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-4.834728566805482</v>
+        <v>-4.839700825178699</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.1728324597632623</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.0964871649406511</v>
+        <v>-0.09648716494065125</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.01074314625440021</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.05284482496551965</v>
+        <v>-0.0513904510294728</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1334135584889669</v>
+        <v>0.1311056590783595</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1186706853171444</v>
+        <v>-0.1209067194665625</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.0127683574656401</v>
+        <v>0.01408495131741528</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1423605351258026</v>
+        <v>0.1462799450693128</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.1257136085138799</v>
+        <v>-0.1241299398118413</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.01200312481899671</v>
+        <v>-0.01194269819822297</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.1482862721955902</v>
+        <v>0.14571631642426</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.1135736248215027</v>
+        <v>-0.1130312530886479</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.01093761786838029</v>
+        <v>0.01137779649991603</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1941615636645345</v>
+        <v>0.1939795477530782</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.05332243996514954</v>
+        <v>-0.05373084601261258</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.07183297713244061</v>
+        <v>0.07424816002272551</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2028492962195564</v>
+        <v>0.2041591737269377</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.06697707454600414</v>
+        <v>-0.0653744364116743</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.03466302676446865</v>
+        <v>0.03373034430123582</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1935473704171365</v>
+        <v>0.1905263315140635</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.06842093855051273</v>
+        <v>-0.06888294594804897</v>
       </c>
     </row>
     <row r="58">
